--- a/Public/tabledata/excelsource/人物属性表.xlsx
+++ b/Public/tabledata/excelsource/人物属性表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="24795" windowHeight="12300"/>
+    <workbookView xWindow="480" yWindow="165" windowWidth="24795" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="主属性" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,10 @@
   </si>
   <si>
     <t>排名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -394,15 +398,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -415,8 +419,11 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -429,8 +436,11 @@
       <c r="D2">
         <v>1</v>
       </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -443,8 +453,11 @@
       <c r="D3">
         <v>2</v>
       </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -456,6 +469,9 @@
       </c>
       <c r="D4">
         <v>3</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
